--- a/K9HZ_Front_Panel_Boards/K9HZ_Front_Panel_Boards_BOMs/K9HZ_Front_Panel_Electronics_BOM_V012.6_11-15-23.xlsx
+++ b/K9HZ_Front_Panel_Boards/K9HZ_Front_Panel_Boards_BOMs/K9HZ_Front_Panel_Electronics_BOM_V012.6_11-15-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_Front_Panel_Boards\Front_Panel_Two_Boards_Stacked_V12.6\K9HZ_Front_Panel_Electronics_Board_V12.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_Front_Panel_Boards\K9HZ_Front_Panel_Boards_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F89B05-B713-455B-A7B8-32F0FDA4650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F172E7-1215-4334-8BE3-F7270498D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB8FF529-D3E9-4D91-B4C9-BA8B32EACA68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Number</t>
   </si>
@@ -123,13 +123,25 @@
   </si>
   <si>
     <t>C1206C104K5RACTU</t>
+  </si>
+  <si>
+    <t>PEC11R4220F-S0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoders </t>
+  </si>
+  <si>
+    <t>652-PEC11R-4220F-S24</t>
+  </si>
+  <si>
+    <t>NOTE:  The encoder type is a matter of personal preference.  There are many possible choices here.  Do your research.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +160,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +210,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936AF51D-5506-4CAF-8B20-9DB662FEDE7E}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -681,6 +711,28 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
